--- a/LF/TAS/Nigeria/2024/oct_2024/Kogi/ng_lf_tas_2410_2_fts_kg.xlsx
+++ b/LF/TAS/Nigeria/2024/oct_2024/Kogi/ng_lf_tas_2410_2_fts_kg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Nigeria\2024\july_2024\kebbi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Nigeria\2024\oct_2024\Kogi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4A2D30-F1B8-49EB-99AC-A9FF61E9CF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4155EE6A-34A9-4BED-A11F-B05EBECA971B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="176">
   <si>
     <t>type</t>
   </si>
@@ -81,19 +81,10 @@
     <t>Select your LGA</t>
   </si>
   <si>
-    <t>eu = ${d_eu}</t>
-  </si>
-  <si>
     <t>d_cluster_name</t>
   </si>
   <si>
-    <t>district = ${d_district}</t>
-  </si>
-  <si>
     <t>d_cluster_id</t>
-  </si>
-  <si>
-    <t>school = ${d_cluster_name}</t>
   </si>
   <si>
     <t>string</t>
@@ -562,13 +553,19 @@
     <t>20</t>
   </si>
   <si>
-    <t>(July 2024) Kebbi - 2. TAS1 LF FTS Form V4</t>
-  </si>
-  <si>
-    <t>ng_lf_tas_2406_2_fts_kb_v4</t>
-  </si>
-  <si>
-    <t>ng_tas_fts_2406_kb_4</t>
+    <t>ng_lf_tas_2410_2_fts_kg</t>
+  </si>
+  <si>
+    <t>(Octobre 2024) Kogi - 2. TAS1 LF FTS Form V4</t>
+  </si>
+  <si>
+    <t>ng_tas_fts_2410_kg</t>
+  </si>
+  <si>
+    <t>d_community</t>
+  </si>
+  <si>
+    <t>Select the community</t>
   </si>
 </sst>
 </file>
@@ -1128,13 +1125,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1196,18 +1193,18 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="47.25">
       <c r="A2" s="29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>14</v>
@@ -1229,13 +1226,13 @@
     </row>
     <row r="3" spans="1:15" s="16" customFormat="1">
       <c r="A3" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D3" s="39"/>
       <c r="G3" s="39"/>
@@ -1248,7 +1245,7 @@
     </row>
     <row r="4" spans="1:15" s="16" customFormat="1">
       <c r="A4" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>17</v>
@@ -1267,19 +1264,16 @@
       </c>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
-      <c r="M4" s="16" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="5" spans="1:15" s="16" customFormat="1">
       <c r="A5" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="29"/>
@@ -1292,19 +1286,16 @@
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
-      <c r="M5" s="16" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="6" spans="1:15" s="16" customFormat="1">
       <c r="A6" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="29"/>
@@ -1317,19 +1308,16 @@
       </c>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
-      <c r="M6" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="16" customFormat="1" ht="31.5">
+    </row>
+    <row r="7" spans="1:15" s="16" customFormat="1">
       <c r="A7" s="16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="29"/>
@@ -1342,83 +1330,81 @@
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
-      <c r="M7" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="16" customFormat="1">
-      <c r="A8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+    </row>
+    <row r="8" spans="1:15" s="16" customFormat="1" ht="31.5">
+      <c r="A8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" spans="1:15" s="16" customFormat="1">
-      <c r="A9" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="16" t="s">
-        <v>151</v>
-      </c>
+      <c r="A9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:15" s="16" customFormat="1">
-      <c r="A10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="A10" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="16" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="11" spans="1:15" s="16" customFormat="1">
       <c r="A11" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13"/>
@@ -1427,7 +1413,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="11"/>
       <c r="I11" s="10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -1436,99 +1422,93 @@
     </row>
     <row r="12" spans="1:15" s="16" customFormat="1">
       <c r="A12" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>108</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="12"/>
       <c r="D12" s="13"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="10" t="s">
+      <c r="I12" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:15" s="16" customFormat="1">
+      <c r="A13" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:15" s="16" customFormat="1" ht="31.5">
-      <c r="A13" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="11" t="s">
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:15" s="16" customFormat="1" ht="31.5">
+      <c r="A14" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="30" t="s">
         <v>109</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="1:15" s="16" customFormat="1">
-      <c r="A14" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="30" t="s">
-        <v>112</v>
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
       <c r="M14" s="29"/>
     </row>
-    <row r="15" spans="1:15" s="16" customFormat="1" ht="31.5">
+    <row r="15" spans="1:15" s="16" customFormat="1">
       <c r="A15" s="29" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>31</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D15" s="31"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="33"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="29" t="s">
@@ -1538,22 +1518,24 @@
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
     </row>
-    <row r="16" spans="1:15" s="16" customFormat="1">
+    <row r="16" spans="1:15" s="16" customFormat="1" ht="31.5">
       <c r="A16" s="29" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="31"/>
+        <v>27</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>28</v>
+      </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="33"/>
       <c r="H16" s="30" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="29" t="s">
@@ -1563,22 +1545,22 @@
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
     </row>
-    <row r="17" spans="1:13" s="16" customFormat="1" ht="31.5">
+    <row r="17" spans="1:13" s="16" customFormat="1">
       <c r="A17" s="29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
       <c r="G17" s="33"/>
       <c r="H17" s="30" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I17" s="30"/>
       <c r="J17" s="29" t="s">
@@ -1588,24 +1570,24 @@
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
     </row>
-    <row r="18" spans="1:13" s="16" customFormat="1">
+    <row r="18" spans="1:13" s="16" customFormat="1" ht="31.5">
       <c r="A18" s="29" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="31"/>
+        <v>33</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="D18" s="31"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="33"/>
       <c r="H18" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>39</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="I18" s="30"/>
       <c r="J18" s="29" t="s">
         <v>16</v>
       </c>
@@ -1613,99 +1595,97 @@
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
     </row>
-    <row r="19" spans="1:13" s="16" customFormat="1" ht="63">
+    <row r="19" spans="1:13" s="16" customFormat="1">
       <c r="A19" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="36"/>
+        <v>34</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="33"/>
       <c r="H19" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
+        <v>109</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="K19" s="29"/>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
     </row>
-    <row r="20" spans="1:13" s="16" customFormat="1" ht="31.5">
+    <row r="20" spans="1:13" s="16" customFormat="1" ht="63">
       <c r="A20" s="29" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="33"/>
       <c r="H20" s="30" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I20" s="29"/>
-      <c r="J20" s="29" t="s">
-        <v>16</v>
-      </c>
+      <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
     </row>
-    <row r="21" spans="1:13" ht="31.5">
+    <row r="21" spans="1:13" s="16" customFormat="1" ht="31.5">
       <c r="A21" s="29" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="36"/>
+        <v>42</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="I21" s="34"/>
+        <v>113</v>
+      </c>
+      <c r="I21" s="29"/>
       <c r="J21" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" spans="1:13" ht="31.5">
       <c r="A22" s="29" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
       <c r="G22" s="36"/>
       <c r="H22" s="30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I22" s="34"/>
       <c r="J22" s="29" t="s">
@@ -1715,24 +1695,24 @@
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="1:13" ht="31.5">
+    <row r="23" spans="1:13">
       <c r="A23" s="29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
       <c r="G23" s="36"/>
       <c r="H23" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I23" s="34"/>
       <c r="J23" s="29" t="s">
@@ -1742,96 +1722,105 @@
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" ht="31.5">
       <c r="A24" s="29" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
+        <v>48</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>32</v>
+      </c>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
       <c r="G24" s="36"/>
       <c r="H24" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="34"/>
+        <v>115</v>
+      </c>
+      <c r="I24" s="34"/>
+      <c r="J24" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
     </row>
-    <row r="25" spans="1:13" ht="56.25" customHeight="1">
-      <c r="A25" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="28" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+    <row r="25" spans="1:13">
+      <c r="A25" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+    </row>
+    <row r="26" spans="1:13" ht="56.25" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H26" s="39"/>
+      <c r="I26" s="28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="H27" s="39"/>
-      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>123</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="H28" s="39"/>
       <c r="I28" s="28"/>
-      <c r="J28" s="27" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I29" s="28"/>
       <c r="J29" s="27" t="s">
@@ -1840,16 +1829,16 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I30" s="28"/>
       <c r="J30" s="27" t="s">
@@ -1858,16 +1847,16 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="16" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I31" s="28"/>
       <c r="J31" s="27" t="s">
@@ -1876,16 +1865,16 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="16" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I32" s="28"/>
       <c r="J32" s="27" t="s">
@@ -1894,16 +1883,16 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="16" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I33" s="28"/>
       <c r="J33" s="27" t="s">
@@ -1912,16 +1901,16 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I34" s="28"/>
       <c r="J34" s="27" t="s">
@@ -1930,46 +1919,64 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="16" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>59</v>
+        <v>139</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="I35" s="28"/>
+      <c r="J35" s="27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
+      <c r="A36" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>61</v>
-      </c>
+      <c r="A37" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1996,7 +2003,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2005,244 +2012,244 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1">
       <c r="A2" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1">
       <c r="A4" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>134</v>
-      </c>
       <c r="C4" s="40" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="16" customFormat="1">
       <c r="A6" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="16" customFormat="1">
       <c r="A7" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="16" customFormat="1">
       <c r="A8" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="16" customFormat="1">
       <c r="A9" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="16" customFormat="1">
       <c r="A10" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="16" customFormat="1">
       <c r="A11" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="16" customFormat="1">
       <c r="A12" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="16" customFormat="1">
       <c r="A13" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="16" customFormat="1">
       <c r="A14" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="16" customFormat="1">
       <c r="A15" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="16" customFormat="1">
       <c r="A16" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="16" customFormat="1">
       <c r="A17" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="16" customFormat="1">
       <c r="A18" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="16" customFormat="1">
       <c r="A19" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="16" customFormat="1">
       <c r="A20" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="16" customFormat="1">
       <c r="A21" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="16" customFormat="1">
       <c r="A22" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="6" customFormat="1">
@@ -2251,167 +2258,167 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
         <v>74</v>
       </c>
-      <c r="B30" t="s">
-        <v>77</v>
-      </c>
       <c r="C30" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
         <v>78</v>
       </c>
-      <c r="B33" t="s">
-        <v>81</v>
-      </c>
       <c r="C33" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3663,8 +3670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3677,27 +3684,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>16</v>
